--- a/Excel Files/Traffic_Data_Causes.xlsx
+++ b/Excel Files/Traffic_Data_Causes.xlsx
@@ -1,21 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsoedarnadi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsoedarnadi/Documents/GitHub/Datathon-Dataverse/Excel Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72EDFD46-8D71-6B49-9ACA-8A83AA572773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CA8F05-FB19-094F-BEB1-9C555D71D9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14720"/>
+    <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Traffic_Data_Causes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Traffic_Data_Causes!$F$5</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -160,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -994,10 +1016,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D573"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
